--- a/a.xlsx
+++ b/a.xlsx
@@ -1,26 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="9450"/>
+  </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="工作表1" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Sheet1" state="visible" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+  <si>
+    <t>仪表信息表</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>hehe？？？</t>
+  </si>
+  <si>
+    <t>*仪表类型</t>
+  </si>
+  <si>
+    <t>hehe</t>
+  </si>
+  <si>
+    <t>损耗率</t>
+  </si>
+  <si>
+    <t>??hehe？？？</t>
+  </si>
+  <si>
+    <t>?hehe?</t>
+  </si>
+  <si>
+    <t>表号</t>
+  </si>
+  <si>
+    <t>安装位置</t>
+  </si>
+  <si>
+    <t>hehexxx</t>
+  </si>
+  <si>
+    <t>-hehe-</t>
+  </si>
+  <si>
+    <t>N23244344341</t>
+  </si>
+  <si>
+    <t>一号楼楼下</t>
+  </si>
+  <si>
+    <t>二号楼楼下</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小区名称  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">有   </t>
+  </si>
+  <si>
+    <t>AREA_NAME_</t>
+  </si>
+  <si>
+    <t>小区ID</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>AREA_ID_</t>
+  </si>
+  <si>
+    <t>仪表名称</t>
+  </si>
+  <si>
+    <t>NAME_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仪表代码(自动生成)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">无  </t>
+  </si>
+  <si>
+    <t>CODE_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">仪表类型(下拉选项)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">有 </t>
+  </si>
+  <si>
+    <t>TYPE_</t>
+  </si>
+  <si>
+    <t>倍率</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>MAGNIFICATION_</t>
+  </si>
+  <si>
+    <t>WASTAGE_</t>
+  </si>
+  <si>
+    <t>最大读数</t>
+  </si>
+  <si>
+    <t>MAX_SCALE_</t>
+  </si>
+  <si>
+    <t>初始读数</t>
+  </si>
+  <si>
+    <t>INIT_SCALE_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">初始读取日期 </t>
+  </si>
+  <si>
+    <t>INIT_DATE_</t>
+  </si>
+  <si>
+    <t>NUMBER_</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>REMARK_</t>
+  </si>
+  <si>
+    <t>ADDRESS_</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,14 +186,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -375,282 +527,293 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>仪表信息表</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>序号</v>
-      </c>
-      <c r="B3" t="str">
-        <v>bbb</v>
-      </c>
-      <c r="C3" t="str">
-        <v>*仪表类型</v>
-      </c>
-      <c r="D3" t="str">
-        <v>hehe</v>
-      </c>
-      <c r="E3" t="str">
-        <v>hehe</v>
-      </c>
-      <c r="F3" t="str">
-        <v>损耗率</v>
-      </c>
-      <c r="G3" t="str">
-        <v>仪表初始读数</v>
-      </c>
-      <c r="H3" t="str">
-        <v>初始读取日期</v>
-      </c>
-      <c r="I3" t="str">
-        <v>表号</v>
-      </c>
-      <c r="J3" t="str">
-        <v>安装位置</v>
-      </c>
-      <c r="K3" t="str">
-        <v>备注</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1" ht="14.25" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" ht="121.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="14.25" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="str">
-        <v>bbb</v>
+      <c r="B4" t="s">
+        <v>2</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="str">
-        <v>hehe</v>
-      </c>
-      <c r="E4" t="str">
-        <v>hehe</v>
-      </c>
-      <c r="F4" t="str">
-        <v>hehexxx</v>
-      </c>
-      <c r="G4">
-        <v>50</v>
-      </c>
-      <c r="H4" t="str">
-        <v>2019.9.9</v>
-      </c>
-      <c r="I4" t="str">
-        <v>N23244344341</v>
-      </c>
-      <c r="J4" t="str">
-        <v>一号楼楼下</v>
-      </c>
-      <c r="K4" t="str">
-        <v>设备正常</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="str">
-        <v>bbb</v>
+      <c r="B5" t="s">
+        <v>2</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5" t="str">
-        <v>hehe</v>
-      </c>
-      <c r="E5" t="str">
-        <v>hehe</v>
-      </c>
-      <c r="F5" t="str">
-        <v>hehexxx</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="H5" t="str">
-        <v>2019.9.9</v>
-      </c>
-      <c r="I5" t="str">
-        <v>N23244344341</v>
-      </c>
-      <c r="J5" t="str">
-        <v>二号楼楼下</v>
-      </c>
-      <c r="K5" t="str">
-        <v>设备正常</v>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.15" customHeight="1"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v xml:space="preserve">小区名称  </v>
-      </c>
-      <c r="B1" t="str">
-        <v xml:space="preserve">有   </v>
-      </c>
-      <c r="C1" t="str">
-        <v>AREA_NAME_</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>小区ID</v>
-      </c>
-      <c r="B2" t="str">
-        <v>有</v>
-      </c>
-      <c r="C2" t="str">
-        <v>AREA_ID_</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>仪表名称</v>
-      </c>
-      <c r="B3" t="str">
-        <v xml:space="preserve">有   </v>
-      </c>
-      <c r="C3" t="str">
-        <v>NAME_</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve">仪表代码(自动生成)  </v>
-      </c>
-      <c r="B4" t="str">
-        <v xml:space="preserve">无  </v>
-      </c>
-      <c r="C4" t="str">
-        <v>CODE_</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve">仪表类型(下拉选项)  </v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve">有 </v>
-      </c>
-      <c r="C5" t="str">
-        <v>TYPE_</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>倍率</v>
-      </c>
-      <c r="B6" t="str">
-        <v>无</v>
-      </c>
-      <c r="C6" t="str">
-        <v>MAGNIFICATION_</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>损耗率</v>
-      </c>
-      <c r="B7" t="str">
-        <v>无</v>
-      </c>
-      <c r="C7" t="str">
-        <v>WASTAGE_</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>最大读数</v>
-      </c>
-      <c r="B8" t="str">
-        <v>有</v>
-      </c>
-      <c r="C8" t="str">
-        <v>MAX_SCALE_</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>初始读数</v>
-      </c>
-      <c r="B9" t="str">
-        <v>无</v>
-      </c>
-      <c r="C9" t="str">
-        <v>INIT_SCALE_</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v xml:space="preserve">初始读取日期 </v>
-      </c>
-      <c r="B10" t="str">
-        <v>无</v>
-      </c>
-      <c r="C10" t="str">
-        <v>INIT_DATE_</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>表号</v>
-      </c>
-      <c r="B11" t="str">
-        <v>无</v>
-      </c>
-      <c r="C11" t="str">
-        <v>NUMBER_</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>备注</v>
-      </c>
-      <c r="B12" t="str">
-        <v>有</v>
-      </c>
-      <c r="C12" t="str">
-        <v>REMARK_</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>安装位置</v>
-      </c>
-      <c r="B13" t="str">
-        <v>有</v>
-      </c>
-      <c r="C13" t="str">
-        <v>ADDRESS_</v>
+    <row r="1" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
-  </ignoredErrors>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/a.xlsx
+++ b/a.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>仪表信息表</t>
   </si>
@@ -528,7 +528,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:AB5"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="A2" sqref="A2"/>
@@ -542,7 +542,7 @@
       </c>
     </row>
     <row r="2" ht="121.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" ht="14.25" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -579,8 +579,11 @@
       <c r="AA3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -617,8 +620,11 @@
       <c r="AA4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -653,6 +659,9 @@
         <v>2</v>
       </c>
       <c r="AA5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB5" t="s">
         <v>7</v>
       </c>
     </row>
